--- a/Projektzeitplan.xlsx
+++ b/Projektzeitplan.xlsx
@@ -5,17 +5,20 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\KE3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\langohra.tmb18\Documents\GitHub\KE3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926C3627-1B68-4775-825E-7A76AFF50AB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F505B6CA-5771-4EAF-83AA-88B654C29707}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Tabelle 1'!$8:$9</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
   <si>
     <t>Start</t>
   </si>
@@ -235,6 +238,12 @@
   </si>
   <si>
     <t>Langohr</t>
+  </si>
+  <si>
+    <t>alle</t>
+  </si>
+  <si>
+    <t>26.11.</t>
   </si>
 </sst>
 </file>
@@ -299,14 +308,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="28"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -316,6 +317,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -342,7 +351,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -382,15 +391,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -455,15 +455,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -537,16 +528,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -554,21 +538,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -579,61 +554,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -990,1324 +982,1406 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="80" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="62.875" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="4" width="10.75" style="7" customWidth="1"/>
-    <col min="5" max="6" width="6" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="7" customWidth="1"/>
-    <col min="8" max="8" width="8" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="6" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.25" style="42" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="4" width="10.75" style="4" customWidth="1"/>
+    <col min="5" max="6" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.25" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="28.5">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:13" ht="36">
-      <c r="A2" s="20" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:13" ht="31.5">
+      <c r="A2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="C3" s="11"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:13" ht="18.75">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="18.75">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>43738</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="18.75">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>43797</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="1"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="11"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="18.75">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="21" t="s">
+      <c r="L8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="M8" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="18.75">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="21">
+      <c r="A9" s="45"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="13">
         <v>43738</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="13">
         <v>43745</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="13">
         <v>43752</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="13">
         <v>43759</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="13">
         <v>43766</v>
       </c>
-      <c r="J9" s="21">
-        <v>43742</v>
-      </c>
-      <c r="K9" s="21">
+      <c r="J9" s="13">
+        <v>43773</v>
+      </c>
+      <c r="K9" s="13">
         <v>43780</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="13">
         <v>43787</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="13">
         <v>43794</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="C10"/>
       <c r="D10"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23" t="s">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="23" t="s">
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="23" t="s">
+      <c r="L10" s="14"/>
+      <c r="M10" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="49">
         <v>43767</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="49">
         <v>43794</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="49">
         <v>43767</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="49">
         <v>43794</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
     </row>
     <row r="13" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="49">
         <v>43752</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-    </row>
-    <row r="14" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A14" s="3" t="s">
+      <c r="D13" s="49">
+        <v>43758</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A14" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="13">
+      <c r="B14" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="49">
         <v>43738</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="49">
         <v>43759</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
+      <c r="B15" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="49">
+        <v>43770</v>
+      </c>
+      <c r="D15" s="49">
+        <v>43773</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
     </row>
     <row r="16" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="49">
         <v>43767</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
+      <c r="D16" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
+      <c r="B17" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="49">
+        <v>43767</v>
+      </c>
+      <c r="D17" s="49">
+        <v>43796</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
     </row>
     <row r="18" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
+      <c r="B18" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="49">
+        <v>43780</v>
+      </c>
+      <c r="D18" s="49">
+        <v>43784</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="49">
         <v>43752</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="49">
         <v>43794</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
+      <c r="B20" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="49">
+        <v>43787</v>
+      </c>
+      <c r="D20" s="49">
+        <v>43791</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-    </row>
-    <row r="22" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A22" s="15" t="s">
+      <c r="C21" s="49">
+        <v>43780</v>
+      </c>
+      <c r="D21" s="49">
+        <v>43791</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="1:13" ht="30.75" customHeight="1">
+      <c r="A22" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
+      <c r="B22" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
     </row>
     <row r="23" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="49">
         <v>43738</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="49">
         <v>43794</v>
       </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
     </row>
     <row r="24" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
+      <c r="B24" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="49">
+        <v>43795</v>
+      </c>
+      <c r="D24" s="49">
+        <v>43796</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="16"/>
     </row>
     <row r="25" spans="1:13" ht="22.15" customHeight="1">
-      <c r="B25" s="3"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
     </row>
     <row r="26" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-    </row>
-    <row r="27" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A27" s="3" t="s">
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="49">
         <v>43738</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="49">
         <v>43767</v>
       </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-    </row>
-    <row r="28" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A28" s="3" t="s">
+      <c r="E27" s="19"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+    </row>
+    <row r="28" spans="1:13" ht="31.5">
+      <c r="A28" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="49">
         <v>43738</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="49">
         <v>43767</v>
       </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-    </row>
-    <row r="29" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A29" s="25" t="s">
+      <c r="E28" s="19"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+    </row>
+    <row r="29" spans="1:13" ht="31.5">
+      <c r="A29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="49">
         <v>43738</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="49">
         <v>43767</v>
       </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-    </row>
-    <row r="30" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A30" s="25" t="s">
+      <c r="E29" s="19"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+    </row>
+    <row r="30" spans="1:13" ht="31.5">
+      <c r="A30" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="49">
         <v>43738</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="49">
         <v>43767</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-    </row>
-    <row r="31" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A31" s="25" t="s">
+      <c r="E30" s="19"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+    </row>
+    <row r="31" spans="1:13" ht="31.5">
+      <c r="A31" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="49">
         <v>43738</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="49">
         <v>43767</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
     </row>
     <row r="32" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A32" s="25"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
     </row>
     <row r="33" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-    </row>
-    <row r="34" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A34" s="25" t="s">
+      <c r="B33" s="48"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+    </row>
+    <row r="34" spans="1:15" ht="31.5">
+      <c r="A34" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="49">
         <v>43738</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="49">
         <v>43759</v>
       </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
     </row>
     <row r="35" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="49">
         <v>43738</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="49">
         <v>43759</v>
       </c>
-      <c r="E35" s="38"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
     </row>
     <row r="36" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A36" s="26"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
+      <c r="A36" s="50"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
     </row>
     <row r="37" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
       <c r="O37" s="1"/>
     </row>
     <row r="38" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="49">
         <v>43738</v>
       </c>
-      <c r="D38" s="54">
+      <c r="D38" s="49">
         <v>43767</v>
       </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
     </row>
     <row r="39" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="49">
         <v>43738</v>
       </c>
-      <c r="D39" s="54">
+      <c r="D39" s="49">
         <v>43767</v>
       </c>
-      <c r="E39" s="35"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="9"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="6"/>
     </row>
     <row r="40" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A40" s="36" t="s">
+      <c r="A40" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="49">
         <v>43738</v>
       </c>
-      <c r="D40" s="54">
+      <c r="D40" s="49">
         <v>43767</v>
       </c>
-      <c r="E40" s="35"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="9"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="6"/>
     </row>
     <row r="41" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="49">
         <v>43738</v>
       </c>
-      <c r="D41" s="54">
+      <c r="D41" s="49">
         <v>43767</v>
       </c>
-      <c r="E41" s="35"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="9"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="6"/>
     </row>
     <row r="42" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="49">
         <v>43738</v>
       </c>
-      <c r="D42" s="54">
+      <c r="D42" s="49">
         <v>43767</v>
       </c>
-      <c r="E42" s="35"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="9"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="6"/>
     </row>
     <row r="43" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="49">
         <v>43738</v>
       </c>
-      <c r="D43" s="54">
+      <c r="D43" s="49">
         <v>43767</v>
       </c>
-      <c r="E43" s="35"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="9"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="6"/>
     </row>
     <row r="44" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A44" s="36" t="s">
+      <c r="A44" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="49">
         <v>43738</v>
       </c>
-      <c r="D44" s="54">
+      <c r="D44" s="49">
         <v>43767</v>
       </c>
-      <c r="E44" s="43"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="39"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="27"/>
     </row>
     <row r="45" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A45" s="26"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
     </row>
     <row r="46" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A46" s="46" t="s">
+      <c r="A46" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
     </row>
     <row r="47" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A47" s="36" t="s">
+      <c r="A47" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="49">
         <v>43738</v>
       </c>
-      <c r="D47" s="54">
+      <c r="D47" s="49">
         <v>43759</v>
       </c>
-      <c r="E47" s="48"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="42"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="30"/>
     </row>
     <row r="48" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A48" s="36" t="s">
+      <c r="A48" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="49">
         <v>43738</v>
       </c>
-      <c r="D48" s="54">
+      <c r="D48" s="49">
         <v>43759</v>
       </c>
-      <c r="E48" s="49"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="9"/>
-    </row>
-    <row r="49" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A49" s="36" t="s">
+      <c r="E48" s="36"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="6"/>
+    </row>
+    <row r="49" spans="1:13" ht="31.5">
+      <c r="A49" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="49">
         <v>43738</v>
       </c>
-      <c r="D49" s="54">
+      <c r="D49" s="49">
         <v>43759</v>
       </c>
-      <c r="E49" s="49"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="9"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="6"/>
     </row>
     <row r="50" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A50" s="36" t="s">
+      <c r="A50" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="49">
         <v>43738</v>
       </c>
-      <c r="D50" s="54">
+      <c r="D50" s="49">
         <v>43759</v>
       </c>
-      <c r="E50" s="50"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="44"/>
-      <c r="M50" s="39"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="27"/>
     </row>
     <row r="51" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A51" s="26"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
+      <c r="A51" s="50"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
     </row>
     <row r="52" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A52" s="46" t="s">
+      <c r="A52" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="41"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="42"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="30"/>
     </row>
     <row r="53" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A53" s="36" t="s">
+      <c r="A53" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="9"/>
+      <c r="B53" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="49">
+        <v>43766</v>
+      </c>
+      <c r="D53" s="49">
+        <v>43778</v>
+      </c>
+      <c r="E53" s="20"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="6"/>
     </row>
     <row r="54" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A54" s="36" t="s">
+      <c r="A54" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="9"/>
+      <c r="B54" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="49">
+        <v>43766</v>
+      </c>
+      <c r="D54" s="49">
+        <v>43778</v>
+      </c>
+      <c r="E54" s="20"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="6"/>
     </row>
     <row r="55" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A55" s="36"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="9"/>
+      <c r="A55" s="50"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="6"/>
     </row>
     <row r="56" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A56" s="36"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="9"/>
+      <c r="A56" s="50"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="6"/>
     </row>
     <row r="57" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A57" s="46" t="s">
+      <c r="A57" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="9"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="6"/>
     </row>
     <row r="58" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A58" s="36" t="s">
+      <c r="A58" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="9"/>
+      <c r="B58" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="49">
+        <v>43787</v>
+      </c>
+      <c r="D58" s="49">
+        <v>43791</v>
+      </c>
+      <c r="E58" s="20"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="6"/>
     </row>
     <row r="59" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A59" s="36" t="s">
+      <c r="A59" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="9"/>
+      <c r="B59" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="49">
+        <v>43787</v>
+      </c>
+      <c r="D59" s="49">
+        <v>43791</v>
+      </c>
+      <c r="E59" s="20"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="6"/>
     </row>
     <row r="60" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A60" s="36"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="9"/>
+      <c r="A60" s="50"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="6"/>
     </row>
     <row r="61" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A61" s="36"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="9"/>
+      <c r="A61" s="50"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="6"/>
     </row>
     <row r="62" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A62" s="46" t="s">
+      <c r="A62" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="51"/>
-      <c r="L62" s="52"/>
-      <c r="M62" s="52"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="39"/>
+      <c r="M62" s="39"/>
     </row>
     <row r="63" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A63" s="56" t="s">
+      <c r="A63" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C63" s="13">
+      <c r="C63" s="49">
         <v>43752</v>
       </c>
-      <c r="D63" s="54">
+      <c r="D63" s="49">
+        <v>43789</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+    </row>
+    <row r="64" spans="1:13" ht="22.15" customHeight="1">
+      <c r="A64" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" s="49">
+        <v>43752</v>
+      </c>
+      <c r="D64" s="49">
+        <v>43752</v>
+      </c>
+      <c r="E64" s="7"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="40"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
+    </row>
+    <row r="65" spans="1:13" ht="22.15" customHeight="1">
+      <c r="A65" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B65" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="49">
+        <v>43752</v>
+      </c>
+      <c r="D65" s="49">
         <v>43767</v>
       </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="37"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="22"/>
-    </row>
-    <row r="64" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A64" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" s="13">
-        <v>43752</v>
-      </c>
-      <c r="D64" s="54">
-        <v>43752</v>
-      </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="53"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="22"/>
-    </row>
-    <row r="65" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A65" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C65" s="13">
-        <v>43752</v>
-      </c>
-      <c r="D65" s="54">
-        <v>43767</v>
-      </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="53"/>
-      <c r="M65" s="22"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="40"/>
+      <c r="M65" s="14"/>
     </row>
     <row r="66" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A66" s="56" t="s">
+      <c r="A66" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="54"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="42"/>
+      <c r="C66" s="49">
+        <v>43753</v>
+      </c>
+      <c r="D66" s="49">
+        <v>43789</v>
+      </c>
+      <c r="E66" s="7"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="30"/>
     </row>
     <row r="67" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A67" s="56" t="s">
+      <c r="A67" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
-      <c r="M67" s="9"/>
+      <c r="C67" s="49">
+        <v>43753</v>
+      </c>
+      <c r="D67" s="49">
+        <v>43789</v>
+      </c>
+      <c r="E67" s="7"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="6"/>
     </row>
     <row r="68" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A68" s="56" t="s">
+      <c r="A68" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="54"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
-      <c r="M68" s="9"/>
+      <c r="C68" s="49">
+        <v>43753</v>
+      </c>
+      <c r="D68" s="49">
+        <v>43789</v>
+      </c>
+      <c r="E68" s="7"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="6"/>
     </row>
     <row r="69" spans="1:13" ht="22.15" customHeight="1">
-      <c r="A69" s="56"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
+      <c r="A69" s="55"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
     </row>
     <row r="70" spans="1:13" ht="28.9" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;RProjektzeitplan Seite &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>